--- a/documentation/agent_subprocesses.xlsx
+++ b/documentation/agent_subprocesses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AguilarAJ15\Github\DMASpy\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA03EB4A-DB8D-419E-82C6-9B5010F6F2B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D652E521-F580-4E10-89AD-54928B825767}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8940" activeTab="1" xr2:uid="{CAC21F4D-DD05-433E-A4D1-511388D95AA3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8940" xr2:uid="{CAC21F4D-DD05-433E-A4D1-511388D95AA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Engineering Module" sheetId="1" r:id="rId1"/>
@@ -233,13 +233,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{765E7CB2-F713-4AA8-9E50-EE1A396F7A1C}">
   <dimension ref="A2:K10"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -691,13 +691,13 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -713,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF053229-67D3-4C65-B3CE-4AA87D0C030D}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -725,16 +725,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>31</v>
       </c>
     </row>

--- a/documentation/agent_subprocesses.xlsx
+++ b/documentation/agent_subprocesses.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20388"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AguilarAJ15\Github\DMASpy\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.aguilar/Documents/GitHub/DMASpy/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D652E521-F580-4E10-89AD-54928B825767}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442040CB-9C3E-4E41-A60A-0FDC070C5312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8940" xr2:uid="{CAC21F4D-DD05-433E-A4D1-511388D95AA3}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{CAC21F4D-DD05-433E-A4D1-511388D95AA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Engineering Module" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>Network Simulator</t>
   </si>
@@ -159,6 +159,12 @@
 2-Query KB and predictive models for access times
 3-&lt;Routing strategy&gt;
 4-Return routing plan as a list of (next_node, t_start, t_end) tuples</t>
+  </si>
+  <si>
+    <t>routine</t>
+  </si>
+  <si>
+    <t>message_handler</t>
   </si>
 </sst>
 </file>
@@ -222,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -239,6 +245,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -557,17 +566,17 @@
   <dimension ref="A2:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" style="2"/>
-    <col min="2" max="2" width="15.77734375" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="15.77734375" style="1"/>
+    <col min="1" max="1" width="15.83203125" style="2"/>
+    <col min="2" max="2" width="15.83203125" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="15.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -584,7 +593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="5" t="s">
         <v>22</v>
@@ -594,7 +603,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -617,7 +626,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -640,7 +649,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -657,7 +666,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -669,7 +678,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -681,7 +690,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -690,7 +699,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
         <v>29</v>
       </c>
@@ -714,17 +723,17 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -738,8 +747,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="288" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:4" ht="320" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -748,16 +757,24 @@
       <c r="C2" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="288" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="304" x14ac:dyDescent="0.2">
+      <c r="A3" s="7"/>
       <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -766,6 +783,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -778,14 +798,14 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" style="2"/>
-    <col min="2" max="2" width="15.77734375" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="15.77734375" style="1"/>
+    <col min="1" max="1" width="15.83203125" style="2"/>
+    <col min="2" max="2" width="15.83203125" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="15.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="32" x14ac:dyDescent="0.2">
       <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
@@ -795,7 +815,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="32" x14ac:dyDescent="0.2">
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -803,22 +823,22 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
         <v>5</v>
       </c>
